--- a/results/min_var_portfolio/min_var_2016.xlsx
+++ b/results/min_var_portfolio/min_var_2016.xlsx
@@ -531,7 +531,7 @@
         <v>0.2362937707010884</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001000000000000005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         <v>-0.02246858662613323</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08821672022285197</v>
+        <v>0.1054428710236047</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>0.1160347170171437</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001041293583757952</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>0.06330424076853727</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>0.1039199471065682</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001000000000000012</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +807,7 @@
         <v>0.1694978052708024</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000003</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +853,7 @@
         <v>0.001830716586566398</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001000000000000003</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
         <v>-0.02996846891289705</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06677052934704254</v>
+        <v>0.08330259102654217</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>0.02138201101694758</v>
       </c>
       <c r="N11" t="n">
-        <v>0.370794651028179</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
@@ -991,7 +991,7 @@
         <v>-0.02520916547236827</v>
       </c>
       <c r="N12" t="n">
-        <v>0.08703785194565031</v>
+        <v>0.1305558441965321</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>0.04690367188360401</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>0.007718460974664592</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02339883855072837</v>
+        <v>0.03664981645244792</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1414040286643624</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.02725077621815544</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1094020816478187</v>
+        <v>0.1147205123754624</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1267,7 @@
         <v>0.05116082878548465</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09164834675317304</v>
+        <v>0.1483161078146463</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>0.01129955525393325</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.04578164595204842</v>
       </c>
     </row>
     <row r="20">
@@ -1359,7 +1359,7 @@
         <v>0.06648008134640201</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01028565825643564</v>
+        <v>0.02523061115871604</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>-0.06849320362331553</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.003978051721985938</v>
+        <v>-0.005950940346764497</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0305961264647513</v>
+        <v>-0.01230427867398111</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04862587571539504</v>
+        <v>0.04851019423326934</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04280426701410395</v>
+        <v>-0.03307651379251234</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03212245269830616</v>
+        <v>-0.04492688014940518</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008426786233409117</v>
+        <v>0.01364201650075876</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02241082892183277</v>
+        <v>0.0249264269762846</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01017049464372657</v>
+        <v>-0.01758245762068218</v>
       </c>
       <c r="J22" t="n">
-        <v>0.009044310323066755</v>
+        <v>0.009411050356605501</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01783966289863581</v>
+        <v>0.01093890007295887</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.001119042101518891</v>
+        <v>-0.002453594123293892</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01100690804534115</v>
+        <v>0.008947475299763235</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9960298502441495</v>
+        <v>0.994066731426807</v>
       </c>
       <c r="C23" t="n">
-        <v>0.969867197681145</v>
+        <v>0.9877711094472662</v>
       </c>
       <c r="D23" t="n">
-        <v>1.049827511292601</v>
+        <v>1.049706072714351</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9580989032742936</v>
+        <v>0.9674645323765234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9683879930958134</v>
+        <v>0.9560673867818291</v>
       </c>
       <c r="G23" t="n">
-        <v>1.008462391539016</v>
+        <v>1.0137354933953</v>
       </c>
       <c r="H23" t="n">
-        <v>1.022663838061436</v>
+        <v>1.025239687765693</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9898810499442676</v>
+        <v>0.982571211840324</v>
       </c>
       <c r="J23" t="n">
-        <v>1.009085333680398</v>
+        <v>1.009455473537919</v>
       </c>
       <c r="K23" t="n">
-        <v>1.017999740176204</v>
+        <v>1.010998948595552</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9988815837926045</v>
+        <v>0.9975494134784528</v>
       </c>
       <c r="M23" t="n">
-        <v>1.011067706922157</v>
+        <v>1.008987623609551</v>
       </c>
       <c r="N23" t="n">
-        <v>1.219367733498911</v>
+        <v>1.126760346176058</v>
       </c>
     </row>
   </sheetData>
